--- a/data/stm/Modis-StM-SST-20182025.xlsx
+++ b/data/stm/Modis-StM-SST-20182025.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robel\Documents\sagamibay\NOWPAP\NMEW.demos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robel\Documents\sagamibay\NOWPAP\NMEW.demos\data\stm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0229991B-FF5C-4FBA-BE35-68B9B8B6925B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B76C8C92-FF11-4D4D-AEDA-5401AFFAE1E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -721,7 +721,7 @@
   <dimension ref="A1:B111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
